--- a/data/Excel/1.7.xlsx
+++ b/data/Excel/1.7.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkl\source\repos\repo\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6907B366-9BCA-47C3-AC90-FE4C0A711007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="430" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="435" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="5" r:id="rId1"/>
@@ -319,7 +318,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,7 +422,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -677,19 +676,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -969,6 +955,69 @@
         <color indexed="8"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -978,7 +1027,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -993,19 +1042,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1022,68 +1071,151 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1093,209 +1225,159 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{B5BE5C71-2102-4ADA-89D1-EA43F7263FF4}"/>
-    <cellStyle name="Обычный 2 2" xfId="3" xr:uid="{78C1D4FE-BC83-443B-ACD0-BF210885213E}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{35278A70-B280-4EC8-A183-6095524505B1}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2 2" xfId="3"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1572,394 +1654,478 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A093882B-A9D1-408E-A50E-AF6B09DED12A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.89453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="10.47265625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="16.83984375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="40.3125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="37.47265625" style="28" customWidth="1"/>
-    <col min="7" max="9" width="10.578125" style="28" customWidth="1"/>
-    <col min="10" max="16384" width="9.15625" style="28"/>
+    <col min="1" max="1" width="16.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="16" customWidth="1"/>
+    <col min="7" max="9" width="10.5703125" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I1" s="29" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="31" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="31" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="33"/>
-      <c r="E6" s="33" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="36" t="s">
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="39"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="40" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="69"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="39"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="14" spans="1:9" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="47" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="69"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="69"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="69"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="50" t="s">
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="100"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-    </row>
-    <row r="17" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="50"/>
-      <c r="B17" s="53" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="101"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="52"/>
-    </row>
-    <row r="18" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="50"/>
-      <c r="B18" s="53" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="101"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="52"/>
-    </row>
-    <row r="19" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="50"/>
-      <c r="B19" s="53" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="101"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="50"/>
-      <c r="B20" s="53" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="101"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="52"/>
-    </row>
-    <row r="21" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="50"/>
-      <c r="B21" s="53" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="101"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="50"/>
-      <c r="B22" s="54" t="s">
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="101"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="52"/>
-    </row>
-    <row r="23" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="50"/>
-      <c r="B23" s="54" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="101"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="52"/>
-    </row>
-    <row r="24" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="101"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="62"/>
+      <c r="B24" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
-    </row>
-    <row r="25" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="58" t="s">
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="103"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-    </row>
-    <row r="26" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="50"/>
-      <c r="B26" s="53" t="s">
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="117"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-    </row>
-    <row r="27" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="50"/>
-      <c r="B27" s="53" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="102"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
-    </row>
-    <row r="28" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="50"/>
-      <c r="B28" s="53" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="102"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="51"/>
+      <c r="B28" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
-    </row>
-    <row r="29" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="50"/>
-      <c r="B29" s="53" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="102"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
-    </row>
-    <row r="30" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="50"/>
-      <c r="B30" s="54" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="102"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="52"/>
-    </row>
-    <row r="31" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="50"/>
-      <c r="B31" s="54" t="s">
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="101"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="52"/>
-    </row>
-    <row r="32" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="65"/>
-      <c r="B32" s="66" t="s">
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="101"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="52"/>
+      <c r="B32" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="67"/>
-    </row>
-    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G33" s="68"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="69" t="s">
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="103"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="71"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="72"/>
-      <c r="B35" s="73" t="s">
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="73" t="s">
+      <c r="E35" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="73" t="s">
+      <c r="F35" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="73" t="s">
+      <c r="G35" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="73" t="s">
+      <c r="H35" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="73" t="s">
+      <c r="I35" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="77" customFormat="1" ht="46.2" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="74" t="s">
+    <row r="36" spans="1:9" s="28" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-    </row>
-    <row r="37" spans="1:9" s="77" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="78" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+    </row>
+    <row r="37" spans="1:9" s="28" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="46">
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -1971,23 +2137,11 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1995,23 +2149,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FD8F9F-4561-4CCE-949D-D0E30C311350}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="10.578125" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="9.15625" style="2"/>
+    <col min="1" max="32" width="10.5703125" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2021,53 +2175,53 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-    </row>
-    <row r="3" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+    </row>
+    <row r="3" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -2093,17 +2247,17 @@
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2129,210 +2283,210 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="1:33" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-    </row>
-    <row r="6" spans="1:33" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="7" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="18" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+    </row>
+    <row r="6" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18" t="s">
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18" t="s">
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18" t="s">
+      <c r="R7" s="93"/>
+      <c r="S7" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18" t="s">
+      <c r="T7" s="93"/>
+      <c r="U7" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="19" t="s">
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="AF7" s="22" t="s">
+      <c r="AF7" s="97" t="s">
         <v>48</v>
       </c>
       <c r="AG7" s="5"/>
     </row>
-    <row r="8" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="18"/>
-      <c r="B8" s="25" t="s">
+    <row r="8" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="93"/>
+      <c r="B8" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="25" t="s">
+      <c r="M8" s="93"/>
+      <c r="N8" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="T8" s="25" t="s">
+      <c r="T8" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="U8" s="25" t="s">
+      <c r="U8" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="V8" s="25" t="s">
+      <c r="V8" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="W8" s="25" t="s">
+      <c r="W8" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="X8" s="25" t="s">
+      <c r="X8" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="Y8" s="25" t="s">
+      <c r="Y8" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="Z8" s="18" t="s">
+      <c r="Z8" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="25" t="s">
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="23"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="98"/>
       <c r="AG8" s="15"/>
     </row>
-    <row r="9" spans="1:33" ht="320.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="18"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+    <row r="9" spans="1:33" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="93"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
       <c r="L9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="82"/>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="24"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="99"/>
       <c r="AG9" s="5"/>
     </row>
-    <row r="10" spans="1:33" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="83">
+    <row r="10" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
         <v>1</v>
       </c>
-      <c r="B10" s="83">
+      <c r="B10" s="31">
         <v>2</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="31">
         <v>3</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="33">
         <v>4</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="34">
         <v>5</v>
       </c>
       <c r="F10" s="7">
@@ -2395,69 +2549,69 @@
       <c r="Y10" s="7">
         <v>25</v>
       </c>
-      <c r="Z10" s="88">
+      <c r="Z10" s="36">
         <v>26</v>
       </c>
-      <c r="AA10" s="89">
+      <c r="AA10" s="37">
         <v>27</v>
       </c>
-      <c r="AB10" s="86">
+      <c r="AB10" s="34">
         <v>28</v>
       </c>
-      <c r="AC10" s="83">
+      <c r="AC10" s="31">
         <v>29</v>
       </c>
-      <c r="AD10" s="83">
+      <c r="AD10" s="31">
         <v>30</v>
       </c>
-      <c r="AE10" s="90">
+      <c r="AE10" s="38">
         <v>31</v>
       </c>
-      <c r="AF10" s="91">
+      <c r="AF10" s="39">
         <v>32</v>
       </c>
       <c r="AG10" s="5"/>
     </row>
-    <row r="11" spans="1:33" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="84"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:33" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -2471,64 +2625,64 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="97" t="s">
+    <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-    </row>
-    <row r="15" spans="1:33" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="98"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+    </row>
+    <row r="15" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="R16" s="12"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -2538,68 +2692,62 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="99" t="s">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-    </row>
-    <row r="19" spans="1:12" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="103" t="s">
+      <c r="D19" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="104"/>
-      <c r="F19" s="105" t="s">
+      <c r="E19" s="45"/>
+      <c r="F19" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="105"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103" t="s">
+      <c r="G19" s="76"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="103"/>
-      <c r="K19" s="106" t="s">
+      <c r="J19" s="44"/>
+      <c r="K19" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="L19" s="106"/>
+      <c r="L19" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="A2:AF2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="AF7:AF9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
@@ -2616,22 +2764,28 @@
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="T8:T9"/>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="38" fitToHeight="1000" orientation="landscape" r:id="rId1"/>

--- a/data/Excel/1.7.xlsx
+++ b/data/Excel/1.7.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkl\source\repos\repo\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oaa\source\repos\Rampant91\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="435" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-19305" yWindow="435" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>Сведения об обособленном подразделении</t>
   </si>
@@ -314,12 +314,24 @@
   <si>
     <t>(Электронная почта)</t>
   </si>
+  <si>
+    <t>тритий</t>
+  </si>
+  <si>
+    <t>бета-, гамма-излучающие радионуклиды (исключая тритий)</t>
+  </si>
+  <si>
+    <t>альфа-излучающие радионуклиды (исключая трансурановые)</t>
+  </si>
+  <si>
+    <t>трансурановые радионуклиды</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +425,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -833,19 +851,6 @@
         <color indexed="8"/>
       </left>
       <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1016,6 +1021,21 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1048,13 +1068,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1082,7 +1102,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1110,32 +1130,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1156,6 +1173,102 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1168,10 +1281,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1183,68 +1296,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1255,9 +1371,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1276,101 +1389,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1657,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="F29" sqref="F29:I29"/>
     </sheetView>
   </sheetViews>
@@ -1679,43 +1699,43 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -1740,306 +1760,306 @@
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="69"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="69"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="69"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="69"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="59"/>
     </row>
     <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="100"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
     </row>
     <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="101"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="101"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="101"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="55" t="s">
+      <c r="A19" s="69"/>
+      <c r="B19" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="101"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="55" t="s">
+      <c r="A20" s="69"/>
+      <c r="B20" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="101"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
     </row>
     <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="55" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="101"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="57" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="101"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="57" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="101"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="70"/>
+      <c r="B24" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="103"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
     </row>
     <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="117"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="90"/>
     </row>
     <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="55" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="102"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="92"/>
     </row>
     <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="55" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="102"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="92"/>
     </row>
     <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="55" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="102"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="92"/>
     </row>
     <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="55" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="102"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="92"/>
     </row>
     <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="57" t="s">
+      <c r="A30" s="69"/>
+      <c r="B30" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="101"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="47"/>
     </row>
     <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="57" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="101"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="47"/>
     </row>
     <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
-      <c r="B32" s="59" t="s">
+      <c r="A32" s="83"/>
+      <c r="B32" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="103"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="50"/>
     </row>
     <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="48"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="79"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
@@ -2096,36 +2116,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -2142,6 +2132,36 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2155,8 +2175,8 @@
   </sheetPr>
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="O8" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7:AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,52 +2196,52 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -2248,16 +2268,16 @@
       <c r="AF3" s="4"/>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2284,209 +2304,217 @@
       <c r="AF4" s="1"/>
     </row>
     <row r="5" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
     </row>
     <row r="6" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93" t="s">
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93" t="s">
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93" t="s">
+      <c r="R7" s="95"/>
+      <c r="S7" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93" t="s">
+      <c r="T7" s="95"/>
+      <c r="U7" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="94" t="s">
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="AF7" s="97" t="s">
+      <c r="AF7" s="99" t="s">
         <v>48</v>
       </c>
       <c r="AG7" s="5"/>
     </row>
     <row r="8" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
-      <c r="B8" s="92" t="s">
+      <c r="A8" s="95"/>
+      <c r="B8" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="92" t="s">
+      <c r="G8" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="92" t="s">
+      <c r="J8" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="92" t="s">
+      <c r="K8" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="93" t="s">
+      <c r="L8" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="93"/>
-      <c r="N8" s="92" t="s">
+      <c r="M8" s="95"/>
+      <c r="N8" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="92" t="s">
+      <c r="O8" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="92" t="s">
+      <c r="P8" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="92" t="s">
+      <c r="Q8" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="92" t="s">
+      <c r="R8" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="92" t="s">
+      <c r="S8" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="T8" s="92" t="s">
+      <c r="T8" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="U8" s="92" t="s">
+      <c r="U8" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="V8" s="92" t="s">
+      <c r="V8" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="W8" s="92" t="s">
+      <c r="W8" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="X8" s="92" t="s">
+      <c r="X8" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="Y8" s="92" t="s">
+      <c r="Y8" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="Z8" s="93" t="s">
+      <c r="Z8" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="92" t="s">
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="98"/>
+      <c r="AE8" s="97"/>
+      <c r="AF8" s="100"/>
       <c r="AG8" s="15"/>
     </row>
     <row r="9" spans="1:33" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="93"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
       <c r="L9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="99"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="117" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA9" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB9" s="117" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC9" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="101"/>
       <c r="AG9" s="5"/>
     </row>
     <row r="10" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31">
+      <c r="A10" s="30">
         <v>1</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="30">
         <v>2</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="30">
         <v>3</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="32">
         <v>4</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <v>5</v>
       </c>
       <c r="F10" s="7">
@@ -2549,62 +2577,62 @@
       <c r="Y10" s="7">
         <v>25</v>
       </c>
-      <c r="Z10" s="36">
+      <c r="Z10" s="35">
         <v>26</v>
       </c>
-      <c r="AA10" s="37">
+      <c r="AA10" s="36">
         <v>27</v>
       </c>
-      <c r="AB10" s="34">
+      <c r="AB10" s="33">
         <v>28</v>
       </c>
-      <c r="AC10" s="31">
+      <c r="AC10" s="30">
         <v>29</v>
       </c>
-      <c r="AD10" s="31">
+      <c r="AD10" s="30">
         <v>30</v>
       </c>
-      <c r="AE10" s="38">
+      <c r="AE10" s="37">
         <v>31</v>
       </c>
-      <c r="AF10" s="39">
+      <c r="AF10" s="38">
         <v>32</v>
       </c>
       <c r="AG10" s="5"/>
     </row>
     <row r="11" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Q12" s="12"/>
@@ -2626,58 +2654,58 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
     </row>
     <row r="15" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="91"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="R16" s="12"/>
@@ -2693,45 +2721,83 @@
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="76" t="s">
+      <c r="E19" s="44"/>
+      <c r="F19" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44" t="s">
+      <c r="G19" s="108"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="44"/>
-      <c r="K19" s="77" t="s">
+      <c r="J19" s="43"/>
+      <c r="K19" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="L19" s="77"/>
+      <c r="L19" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
     <mergeCell ref="A2:AF2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -2748,44 +2814,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="38" fitToHeight="1000" orientation="landscape" r:id="rId1"/>

--- a/data/Excel/1.7.xlsx
+++ b/data/Excel/1.7.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oaa\source\repos\Rampant91\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57AED9A-AE38-4342-8B9E-42CCB1031A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="435" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="5" r:id="rId1"/>
@@ -183,9 +184,6 @@
     <t>Дата окончания предыдущего отчетного периода</t>
   </si>
   <si>
-    <t>Дата окончания настящего отчетного периода</t>
-  </si>
-  <si>
     <t>Номер корректировки</t>
   </si>
   <si>
@@ -325,12 +323,15 @@
   </si>
   <si>
     <t>трансурановые радионуклиды</t>
+  </si>
+  <si>
+    <t>Дата окончания настоящего отчетного периода</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1047,7 +1048,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1089,9 +1090,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1173,6 +1171,135 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1191,213 +1318,84 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 2 2" xfId="3"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1674,140 +1672,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="F29" sqref="F29:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="16" customWidth="1"/>
-    <col min="7" max="9" width="10.5703125" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="16.7265625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="40.26953125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="37.453125" style="15" customWidth="1"/>
+    <col min="7" max="9" width="10.54296875" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I1" s="17" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I1" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="19"/>
-      <c r="E6" s="19" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59" t="s">
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="59"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="77"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="59"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="59"/>
-    </row>
-    <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="59"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="77"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="77"/>
+    </row>
+    <row r="14" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="81"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="77"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="66" t="s">
         <v>25</v>
       </c>
@@ -1815,307 +1813,337 @@
       <c r="C15" s="67"/>
       <c r="D15" s="67"/>
       <c r="E15" s="68"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="F15" s="84"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="86"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
-    </row>
-    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="73" t="s">
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="89"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="51"/>
+      <c r="B17" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
-    </row>
-    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="73" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="89"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="51"/>
+      <c r="B18" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-    </row>
-    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="73" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="89"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="51"/>
+      <c r="B19" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-    </row>
-    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="73" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="89"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="51"/>
+      <c r="B20" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
-    </row>
-    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="73" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="89"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="51"/>
+      <c r="B21" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
-    </row>
-    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="75" t="s">
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="89"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="51"/>
+      <c r="B22" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
-    </row>
-    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="75" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="89"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="51"/>
+      <c r="B23" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
-    </row>
-    <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
-      <c r="B24" s="80" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="89"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="69"/>
+      <c r="B24" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-    </row>
-    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="s">
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="92"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="90"/>
-    </row>
-    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="73" t="s">
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="63"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="51"/>
+      <c r="B26" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="92"/>
-    </row>
-    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
-      <c r="B27" s="73" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="65"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="51"/>
+      <c r="B27" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="92"/>
-    </row>
-    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="73" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="65"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="51"/>
+      <c r="B28" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="92"/>
-    </row>
-    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="73" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="65"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="51"/>
+      <c r="B29" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="92"/>
-    </row>
-    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="75" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="65"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="51"/>
+      <c r="B30" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="47"/>
-    </row>
-    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
-      <c r="B31" s="75" t="s">
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="89"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="51"/>
+      <c r="B31" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="47"/>
-    </row>
-    <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
-      <c r="B32" s="86" t="s">
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="89"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="52"/>
+      <c r="B32" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
-    </row>
-    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="77" t="s">
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="92"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="79"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24" t="s">
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="28" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+    <row r="36" spans="1:9" s="27" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="1:9" s="28" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:9" s="27" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -2132,36 +2160,6 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2169,23 +2167,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="O8" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7:AE9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="32" width="10.5703125" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="32" width="10.54296875" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2195,51 +2193,51 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-    </row>
-    <row r="3" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+    </row>
+    <row r="3" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
       <c r="G3" s="103"/>
       <c r="H3" s="103"/>
       <c r="I3" s="4"/>
@@ -2267,17 +2265,17 @@
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
+    <row r="4" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2303,218 +2301,218 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+    <row r="5" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+    </row>
+    <row r="6" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-    </row>
-    <row r="6" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="95" t="s">
+      <c r="B7" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="C7" s="110"/>
+      <c r="D7" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95" t="s">
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95" t="s">
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="110"/>
+      <c r="S7" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95" t="s">
+      <c r="T7" s="110"/>
+      <c r="U7" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95" t="s">
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="110"/>
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="110"/>
+      <c r="AB7" s="110"/>
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="95"/>
-      <c r="AE7" s="96" t="s">
+      <c r="AF7" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="AF7" s="99" t="s">
+      <c r="AG7" s="5"/>
+    </row>
+    <row r="8" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="110"/>
+      <c r="B8" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="AG7" s="5"/>
-    </row>
-    <row r="8" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95"/>
-      <c r="B8" s="102" t="s">
+      <c r="C8" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="D8" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="E8" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="F8" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="102" t="s">
+      <c r="G8" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="102" t="s">
+      <c r="H8" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="102" t="s">
+      <c r="I8" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="102" t="s">
+      <c r="J8" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="102" t="s">
+      <c r="K8" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="102" t="s">
+      <c r="L8" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="95" t="s">
+      <c r="M8" s="110"/>
+      <c r="N8" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="95"/>
-      <c r="N8" s="102" t="s">
+      <c r="O8" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="102" t="s">
+      <c r="P8" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="102" t="s">
+      <c r="R8" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="102" t="s">
-        <v>62</v>
-      </c>
-      <c r="R8" s="102" t="s">
+      <c r="T8" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="T8" s="102" t="s">
+      <c r="U8" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="U8" s="102" t="s">
+      <c r="V8" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="V8" s="102" t="s">
+      <c r="W8" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="W8" s="102" t="s">
+      <c r="X8" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="X8" s="102" t="s">
+      <c r="Y8" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="Y8" s="102" t="s">
+      <c r="Z8" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="Z8" s="95" t="s">
+      <c r="AA8" s="110"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="102" t="s">
+      <c r="AE8" s="112"/>
+      <c r="AF8" s="115"/>
+      <c r="AG8" s="5"/>
+    </row>
+    <row r="9" spans="1:33" ht="320.14999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="110"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AE8" s="97"/>
-      <c r="AF8" s="100"/>
-      <c r="AG8" s="15"/>
-    </row>
-    <row r="9" spans="1:33" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="95"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="117" t="s">
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA9" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="AA9" s="117" t="s">
+      <c r="AB9" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="AB9" s="117" t="s">
+      <c r="AC9" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="AC9" s="117" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="101"/>
+      <c r="AD9" s="109"/>
+      <c r="AE9" s="113"/>
+      <c r="AF9" s="116"/>
       <c r="AG9" s="5"/>
     </row>
-    <row r="10" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+    <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="29">
         <v>1</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <v>2</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <v>3</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>4</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>5</v>
       </c>
       <c r="F10" s="7">
@@ -2577,71 +2575,71 @@
       <c r="Y10" s="7">
         <v>25</v>
       </c>
-      <c r="Z10" s="35">
+      <c r="Z10" s="34">
         <v>26</v>
       </c>
-      <c r="AA10" s="36">
+      <c r="AA10" s="35">
         <v>27</v>
       </c>
-      <c r="AB10" s="33">
+      <c r="AB10" s="32">
         <v>28</v>
       </c>
-      <c r="AC10" s="30">
+      <c r="AC10" s="29">
         <v>29</v>
       </c>
-      <c r="AD10" s="30">
+      <c r="AD10" s="29">
         <v>30</v>
       </c>
-      <c r="AE10" s="37">
+      <c r="AE10" s="36">
         <v>31</v>
       </c>
-      <c r="AF10" s="38">
+      <c r="AF10" s="37">
         <v>32</v>
       </c>
       <c r="AG10" s="5"/>
     </row>
-    <row r="11" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2653,64 +2651,64 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="C14" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="110" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-    </row>
-    <row r="15" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="106"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="105"/>
+    </row>
+    <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="105"/>
       <c r="Q15" s="107"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="94"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="R15" s="108"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="108"/>
+      <c r="V15" s="108"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="R16" s="12"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -2720,68 +2718,62 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-    </row>
-    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="108" t="s">
+      <c r="G19" s="93"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="108"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43" t="s">
+      <c r="J19" s="42"/>
+      <c r="K19" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="109" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="109"/>
+      <c r="L19" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="A2:AF2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="AF7:AF9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
@@ -2798,22 +2790,28 @@
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="T8:T9"/>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="38" fitToHeight="1000" orientation="landscape" r:id="rId1"/>

--- a/data/Excel/1.7.xlsx
+++ b/data/Excel/1.7.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oaa\Documents\GitHub\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57AED9A-AE38-4342-8B9E-42CCB1031A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F319A4F-B87A-4726-A533-D8B3794D9D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="5" r:id="rId1"/>
     <sheet name="1.7" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.7'!$A$1:$AF$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.7'!$A$1:$AG$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>Сведения об обособленном подразделении</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>Дата окончания настоящего отчетного периода</t>
+  </si>
+  <si>
+    <t>Договор</t>
   </si>
 </sst>
 </file>
@@ -809,19 +812,6 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -1036,6 +1026,17 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1048,7 +1049,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1069,13 +1070,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1100,7 +1101,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1128,29 +1129,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1171,8 +1172,107 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1186,41 +1286,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1228,95 +1316,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1327,9 +1373,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1348,47 +1391,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1679,63 +1689,63 @@
       <selection activeCell="F29" sqref="F29:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="40.26953125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="37.453125" style="15" customWidth="1"/>
-    <col min="7" max="9" width="10.54296875" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="16.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="15" customWidth="1"/>
+    <col min="7" max="9" width="10.5703125" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="73" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="73" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-    </row>
-    <row r="5" spans="1:9" ht="2.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1746,7 +1756,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="18"/>
       <c r="E6" s="18" t="s">
         <v>31</v>
@@ -1756,310 +1766,310 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="74" t="s">
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="78" t="s">
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="77"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="78" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="60"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="77"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="77"/>
-    </row>
-    <row r="14" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="81"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="77"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="66" t="s">
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="60"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="60"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="60"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="89"/>
-    </row>
-    <row r="17" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="51"/>
-      <c r="B17" s="55" t="s">
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
+      <c r="B17" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="89"/>
-    </row>
-    <row r="18" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
-      <c r="B18" s="55" t="s">
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
+      <c r="B18" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="89"/>
-    </row>
-    <row r="19" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="51"/>
-      <c r="B19" s="55" t="s">
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
+      <c r="B19" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="89"/>
-    </row>
-    <row r="20" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="51"/>
-      <c r="B20" s="55" t="s">
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
+      <c r="B20" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89"/>
-    </row>
-    <row r="21" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="51"/>
-      <c r="B21" s="55" t="s">
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
+      <c r="B21" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="89"/>
-    </row>
-    <row r="22" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="51"/>
-      <c r="B22" s="57" t="s">
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="70"/>
+      <c r="B22" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
-    </row>
-    <row r="23" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="51"/>
-      <c r="B23" s="57" t="s">
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="70"/>
+      <c r="B23" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="89"/>
-    </row>
-    <row r="24" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="69"/>
-      <c r="B24" s="48" t="s">
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="71"/>
+      <c r="B24" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="92"/>
-    </row>
-    <row r="25" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="50" t="s">
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
-    </row>
-    <row r="26" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="51"/>
-      <c r="B26" s="55" t="s">
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="70"/>
+      <c r="B26" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="65"/>
-    </row>
-    <row r="27" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="51"/>
-      <c r="B27" s="55" t="s">
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="93"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="70"/>
+      <c r="B27" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="65"/>
-    </row>
-    <row r="28" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="51"/>
-      <c r="B28" s="55" t="s">
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="93"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="70"/>
+      <c r="B28" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="65"/>
-    </row>
-    <row r="29" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="51"/>
-      <c r="B29" s="55" t="s">
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="93"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="70"/>
+      <c r="B29" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="65"/>
-    </row>
-    <row r="30" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="51"/>
-      <c r="B30" s="57" t="s">
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="93"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="70"/>
+      <c r="B30" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="89"/>
-    </row>
-    <row r="31" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="51"/>
-      <c r="B31" s="57" t="s">
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="48"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="70"/>
+      <c r="B31" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="89"/>
-    </row>
-    <row r="32" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="52"/>
-      <c r="B32" s="59" t="s">
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="48"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="84"/>
+      <c r="B32" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="92"/>
-    </row>
-    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="45" t="s">
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
-    </row>
-    <row r="35" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
         <v>9</v>
@@ -2086,7 +2096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="27" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" s="27" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>1</v>
       </c>
@@ -2099,7 +2109,7 @@
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
     </row>
-    <row r="37" spans="1:9" s="27" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" s="27" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>0</v>
       </c>
@@ -2114,36 +2124,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -2160,6 +2140,36 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2171,73 +2181,75 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="O9" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="10.54296875" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="33" width="10.5703125" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="106" t="s">
+    <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
-    </row>
-    <row r="3" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="108" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="94"/>
+    </row>
+    <row r="3" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="103"/>
       <c r="H3" s="103"/>
       <c r="I3" s="4"/>
@@ -2263,19 +2275,20 @@
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="108" t="s">
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2300,188 +2313,193 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-    </row>
-    <row r="5" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="108" t="s">
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-    </row>
-    <row r="6" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="110" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+    </row>
+    <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110" t="s">
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110" t="s">
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="110"/>
-      <c r="S7" s="110" t="s">
+      <c r="R7" s="96"/>
+      <c r="S7" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="110"/>
-      <c r="U7" s="110" t="s">
+      <c r="T7" s="96"/>
+      <c r="U7" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="110"/>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="110"/>
-      <c r="Z7" s="110"/>
-      <c r="AA7" s="110"/>
-      <c r="AB7" s="110"/>
-      <c r="AC7" s="110"/>
-      <c r="AD7" s="110"/>
-      <c r="AE7" s="111" t="s">
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" s="114" t="s">
+      <c r="AF7" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="5"/>
-    </row>
-    <row r="8" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="110"/>
-      <c r="B8" s="109" t="s">
+      <c r="AG7" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH7" s="5"/>
+    </row>
+    <row r="8" spans="1:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="96"/>
+      <c r="B8" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="109" t="s">
+      <c r="F8" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="109" t="s">
+      <c r="G8" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="109" t="s">
+      <c r="H8" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="109" t="s">
+      <c r="I8" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="109" t="s">
+      <c r="J8" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="109" t="s">
+      <c r="K8" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="110" t="s">
+      <c r="L8" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="110"/>
-      <c r="N8" s="109" t="s">
+      <c r="M8" s="96"/>
+      <c r="N8" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="109" t="s">
+      <c r="O8" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="109" t="s">
+      <c r="P8" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="109" t="s">
+      <c r="Q8" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="109" t="s">
+      <c r="R8" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="S8" s="109" t="s">
+      <c r="S8" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="109" t="s">
+      <c r="T8" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="U8" s="109" t="s">
+      <c r="U8" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="V8" s="109" t="s">
+      <c r="V8" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="W8" s="109" t="s">
+      <c r="W8" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="X8" s="109" t="s">
+      <c r="X8" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="Y8" s="109" t="s">
+      <c r="Y8" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="Z8" s="110" t="s">
+      <c r="Z8" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="109" t="s">
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="96"/>
+      <c r="AC8" s="96"/>
+      <c r="AD8" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="115"/>
-      <c r="AG8" s="5"/>
-    </row>
-    <row r="9" spans="1:33" ht="320.14999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="110"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="100"/>
+      <c r="AG8" s="118"/>
+      <c r="AH8" s="5"/>
+    </row>
+    <row r="9" spans="1:34" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="96"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
       <c r="L9" s="6" t="s">
         <v>71</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="109"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
       <c r="Z9" s="44" t="s">
         <v>82</v>
       </c>
@@ -2494,12 +2512,15 @@
       <c r="AC9" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="AD9" s="109"/>
-      <c r="AE9" s="113"/>
-      <c r="AF9" s="116"/>
-      <c r="AG9" s="5"/>
-    </row>
-    <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="101"/>
+      <c r="AG9" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH9" s="5"/>
+    </row>
+    <row r="10" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>1</v>
       </c>
@@ -2596,9 +2617,12 @@
       <c r="AF10" s="37">
         <v>32</v>
       </c>
-      <c r="AG10" s="5"/>
-    </row>
-    <row r="11" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG10" s="37">
+        <v>33</v>
+      </c>
+      <c r="AH10" s="5"/>
+    </row>
+    <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -2631,13 +2655,14 @@
       <c r="AD11" s="30"/>
       <c r="AE11" s="30"/>
       <c r="AF11" s="30"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AG11" s="30"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
@@ -2651,64 +2676,64 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="105"/>
-      <c r="T14" s="105"/>
-      <c r="U14" s="105"/>
-      <c r="V14" s="105"/>
-    </row>
-    <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+    </row>
+    <row r="15" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="105"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="106"/>
       <c r="Q15" s="107"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="108"/>
-      <c r="T15" s="108"/>
-      <c r="U15" s="108"/>
-      <c r="V15" s="108"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="R16" s="12"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -2718,23 +2743,23 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="101" t="s">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="40"/>
       <c r="E18" s="41"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
       <c r="H18" s="41"/>
       <c r="I18" s="40"/>
       <c r="J18" s="41"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-    </row>
-    <row r="19" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
@@ -2742,38 +2767,46 @@
         <v>78</v>
       </c>
       <c r="E19" s="43"/>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="93"/>
+      <c r="G19" s="108"/>
       <c r="H19" s="42"/>
       <c r="I19" s="42" t="s">
         <v>80</v>
       </c>
       <c r="J19" s="42"/>
-      <c r="K19" s="94" t="s">
+      <c r="K19" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="L19" s="94"/>
+      <c r="L19" s="109"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="AE7:AE9"/>
+  <mergeCells count="55">
     <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:AC8"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
@@ -2790,30 +2823,23 @@
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="T8:T9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="38" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="37" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>